--- a/data/DepartmentTest.xlsx
+++ b/data/DepartmentTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="5490" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="testAddDepartmentWithValidName" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -436,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/DepartmentTest.xlsx
+++ b/data/DepartmentTest.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="5490" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22056" windowHeight="5496" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="testAddDepartmentWithValidName" sheetId="1" r:id="rId1"/>
     <sheet name="testAddDepartment" sheetId="2" r:id="rId2"/>
     <sheet name="testEditDepartmentName" sheetId="3" r:id="rId3"/>
+    <sheet name="addStream" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>depName</t>
   </si>
@@ -31,6 +32,9 @@
   </si>
   <si>
     <t>depNameSecond</t>
+  </si>
+  <si>
+    <t>For testing</t>
   </si>
 </sst>
 </file>
@@ -387,14 +391,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -415,14 +419,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -436,16 +440,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -453,12 +457,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
